--- a/web/CouponExcel.xlsx
+++ b/web/CouponExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>Coupon Type</t>
   </si>
@@ -35,22 +35,244 @@
     <t>Store URL</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>CondomPoint.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy Moods All Night Condoms (15 Pieces) at Rs. 98 ONLY. </t>
+  </si>
+  <si>
+    <t>2020-01-01 23:59:59</t>
+  </si>
+  <si>
+    <t>http://www.condompoint.com</t>
+  </si>
+  <si>
+    <t>HealthKart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get free shipping on Durex condoms on a minimum order of Rs. 200. </t>
+  </si>
+  <si>
+    <t>DUREXFREESHIP</t>
+  </si>
+  <si>
+    <t>http://www.healthkart.com/</t>
+  </si>
+  <si>
+    <t>Adda52</t>
+  </si>
+  <si>
+    <t>Use coupon during deposit of Rs. 100 and get Rs. 100 instant cashback plus 100% cash bonus (one time use coupon).</t>
+  </si>
+  <si>
+    <t>2015-12-31 23:59:00</t>
+  </si>
+  <si>
+    <t>DUNIA52</t>
+  </si>
+  <si>
+    <t>http://www.adda52.com/poker/campaign/partners/coupondunia</t>
+  </si>
+  <si>
+    <t>JungleeRummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get 100% joining bonus of upto Rs. 1500 free on a minimum cash deposit of Rs. 100 at JungleeRummy.com. Use the coupon code while making your deposit to claim the bonus. This offer is valid for only 1 transaction per player. </t>
+  </si>
+  <si>
+    <t>CDRUMMY1500</t>
+  </si>
+  <si>
+    <t>http://www.jungleerummy.com</t>
+  </si>
+  <si>
+    <t>Pleasure Raja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get flat 25% off on Kamasutra condoms ranging from standard to combo packs. No coupon code required. </t>
+  </si>
+  <si>
+    <t>http://www.pleasureraja.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now get flat 30% off on a pack of variety condoms by Moods, and get Moods Art of Love and lovemaking book absolutely free with it. No coupon code required. Offer valid till stock lasts. </t>
+  </si>
+  <si>
+    <t>Make your lovemaking extra special with 8 different condoms in a pack. Skore condoms just add the right amount of excitement needed for making love to your partner. No coupon code required.</t>
+  </si>
+  <si>
+    <t>Orderpleasure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now buy a pack of Kohinoor Silk Condoms for  Rs. 250 only (originally priced at Rs. 500). No coupon code required. </t>
+  </si>
+  <si>
+    <t>http://orderpleasure.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get flat 43% off on Skore combo pack of 8 &amp; Manforce generic viagra (pack of 2 X 9 = 18 Pills) at Rs. 440. No coupon code required. </t>
+  </si>
+  <si>
+    <t>IMbesharam.com</t>
+  </si>
+  <si>
+    <t>Rs. 1000 off on minimum purchase of Rs. 5000 and above sitewide. Offer valid till 31st December.</t>
+  </si>
+  <si>
+    <t>HAPPY2015</t>
+  </si>
+  <si>
+    <t>http://in.imbesharam.com/</t>
+  </si>
+  <si>
+    <t>Get  a combo pack of 8 Skore condoms at Rs.388  with free perfume worth Rs. 100/-. Make your lovemaking extra special with 8 different condoms in a pack. No coupon code required.</t>
+  </si>
+  <si>
+    <t>ClassicRummy</t>
+  </si>
+  <si>
+    <t>Use coupon during deposit of Rs.100 and get Rs.100 instant cashback plus 100% cash bonus.</t>
+  </si>
+  <si>
+    <t>WAY100</t>
+  </si>
+  <si>
+    <t>https://www.classicrummy.com/</t>
+  </si>
+  <si>
+    <t>Buy Kohinoor triple extra condoms pack at Rs. 450. No coupon code required.</t>
+  </si>
+  <si>
+    <t>Buy Kohinoor silk condoms pack at Rs. 300. No coupon code required.</t>
+  </si>
+  <si>
+    <t>Register for free and get an instant bonus of Rs. 25 in your account.</t>
+  </si>
+  <si>
+    <t>Log in and play cash games every day to avail your chance of winning a holiday voucher. One lucky player will be picked randomly who will win a MakeMyTrip Holiday Gift Voucher worth Rs. 5000.</t>
+  </si>
+  <si>
+    <t>ThatsPersonal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get flat 10% off on Fifty Shades of Grey merchandise. </t>
+  </si>
+  <si>
+    <t>2015-06-30 23:59:59</t>
+  </si>
+  <si>
+    <t>SHADES</t>
+  </si>
+  <si>
+    <t>http://www.thatspersonal.com/</t>
+  </si>
+  <si>
+    <t>ShopClues</t>
+  </si>
+  <si>
+    <t>Valentine Special: Upto 80% off on intimate products. No coupon code required.</t>
+  </si>
+  <si>
+    <t>2015-02-17 23:59:00</t>
+  </si>
+  <si>
+    <t>http://www.shopclues.com</t>
+  </si>
+  <si>
+    <t>Valentine's Day Special: Upto 50% off on adult products sitewide.</t>
+  </si>
+  <si>
+    <t>2015-02-14 23:59:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now extend your honeymoon madness with the KamaSutra honeymoon pack. Buy it for Rs. 400 (originally priced at Rs. 499). No coupon code required. </t>
+  </si>
+  <si>
+    <t>Pleasurekart offers a flat 50% discount on generic Sidenafil Citrate (Viagra) tablets. No coupon code required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We live in a modern society, and it's regressive to talk about sex and sexual wellness in hush-hush tones. Go on, celebrate your sexuality unabashedly with these products, some of which will bring your mojo back on track! </t>
+  </si>
+  <si>
+    <t>HKSW</t>
+  </si>
+  <si>
     <t>merchantApp</t>
   </si>
   <si>
-    <t>ThatsPersonal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Get flat 10% off on all products by Dona. </t>
   </si>
   <si>
-    <t>2015-06-30 23:59:59</t>
-  </si>
-  <si>
     <t>LOVEDONA</t>
   </si>
   <si>
-    <t>http://www.thatspersonal.com/</t>
+    <t xml:space="preserve">Get flat 10% off on all products by Wevibe. </t>
+  </si>
+  <si>
+    <t>WEVIBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the given coupon code, 'MEETPC' while registration and participate in the Mary Kom tournament. 5 winners get a chance and meet the pretty Priyanka Chopra. </t>
+  </si>
+  <si>
+    <t>MEETPC</t>
+  </si>
+  <si>
+    <t>Get 100% Joining Bonus (Bonus Upto Rs. 2000) + 2 Tourney Tickets worth Rs. 2200. Hurry! Limited period offer</t>
+  </si>
+  <si>
+    <t>2015-01-02 23:59:00</t>
+  </si>
+  <si>
+    <t>CDNEW2015</t>
+  </si>
+  <si>
+    <t>Flat 15% off on purchase below Rs. 10,000 sitewide.</t>
+  </si>
+  <si>
+    <t>SUMMERFUN</t>
+  </si>
+  <si>
+    <t>Flat 10% off on purchase of  Rs. 10,000 and above sitewide.</t>
+  </si>
+  <si>
+    <t>SUMMERPLAY</t>
+  </si>
+  <si>
+    <t>Flat 12% off on toys for men.</t>
+  </si>
+  <si>
+    <t>MENWILLBEMEN</t>
+  </si>
+  <si>
+    <t>Rs. 500 for new users on their first purchase of Rs. 3000 and above.</t>
+  </si>
+  <si>
+    <t>500ROSES</t>
+  </si>
+  <si>
+    <t>Flat 12% off on 50 Shades of Grey collection.</t>
+  </si>
+  <si>
+    <t>50SHADES12OFF</t>
+  </si>
+  <si>
+    <t>Lingerie starting at Rs. 699. Offer valid only on products mentioned on the landing page. No coupon code required.</t>
+  </si>
+  <si>
+    <t>Lingerie starting at Rs. 499. Offer valid only on products mentioned on the landing page. No coupon code required.</t>
+  </si>
+  <si>
+    <t>Independence weekend special offer by Orderpleasure. Get a discount of flat 25% on purchases made sitewide.nOffer expires on 15th August, so rush!</t>
+  </si>
+  <si>
+    <t>2014-08-15 23:59:00</t>
+  </si>
+  <si>
+    <t>august15</t>
   </si>
 </sst>
 </file>
@@ -389,7 +611,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,7 +620,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="18.709717" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -434,11 +656,620 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/web/CouponExcel.xlsx
+++ b/web/CouponExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
   <si>
     <t>Coupon Type</t>
   </si>
@@ -38,241 +38,496 @@
     <t>normal</t>
   </si>
   <si>
-    <t>CondomPoint.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy Moods All Night Condoms (15 Pieces) at Rs. 98 ONLY. </t>
+    <t>Dominos Pizza</t>
+  </si>
+  <si>
+    <t>30% off on minimum order of Rs. 350. Not valid on simply veg, simply n-veg pizzas, combos and beverages. Valid for online order only.</t>
   </si>
   <si>
     <t>2020-01-01 23:59:59</t>
   </si>
   <si>
-    <t>http://www.condompoint.com</t>
-  </si>
-  <si>
-    <t>HealthKart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get free shipping on Durex condoms on a minimum order of Rs. 200. </t>
-  </si>
-  <si>
-    <t>DUREXFREESHIP</t>
-  </si>
-  <si>
-    <t>http://www.healthkart.com/</t>
-  </si>
-  <si>
-    <t>Adda52</t>
-  </si>
-  <si>
-    <t>Use coupon during deposit of Rs. 100 and get Rs. 100 instant cashback plus 100% cash bonus (one time use coupon).</t>
-  </si>
-  <si>
-    <t>2015-12-31 23:59:00</t>
-  </si>
-  <si>
-    <t>DUNIA52</t>
-  </si>
-  <si>
-    <t>http://www.adda52.com/poker/campaign/partners/coupondunia</t>
-  </si>
-  <si>
-    <t>JungleeRummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get 100% joining bonus of upto Rs. 1500 free on a minimum cash deposit of Rs. 100 at JungleeRummy.com. Use the coupon code while making your deposit to claim the bonus. This offer is valid for only 1 transaction per player. </t>
-  </si>
-  <si>
-    <t>CDRUMMY1500</t>
-  </si>
-  <si>
-    <t>http://www.jungleerummy.com</t>
-  </si>
-  <si>
-    <t>Pleasure Raja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get flat 25% off on Kamasutra condoms ranging from standard to combo packs. No coupon code required. </t>
-  </si>
-  <si>
-    <t>http://www.pleasureraja.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now get flat 30% off on a pack of variety condoms by Moods, and get Moods Art of Love and lovemaking book absolutely free with it. No coupon code required. Offer valid till stock lasts. </t>
-  </si>
-  <si>
-    <t>Make your lovemaking extra special with 8 different condoms in a pack. Skore condoms just add the right amount of excitement needed for making love to your partner. No coupon code required.</t>
-  </si>
-  <si>
-    <t>Orderpleasure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now buy a pack of Kohinoor Silk Condoms for  Rs. 250 only (originally priced at Rs. 500). No coupon code required. </t>
-  </si>
-  <si>
-    <t>http://orderpleasure.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get flat 43% off on Skore combo pack of 8 &amp; Manforce generic viagra (pack of 2 X 9 = 18 Pills) at Rs. 440. No coupon code required. </t>
-  </si>
-  <si>
-    <t>IMbesharam.com</t>
-  </si>
-  <si>
-    <t>Rs. 1000 off on minimum purchase of Rs. 5000 and above sitewide. Offer valid till 31st December.</t>
-  </si>
-  <si>
-    <t>HAPPY2015</t>
-  </si>
-  <si>
-    <t>http://in.imbesharam.com/</t>
-  </si>
-  <si>
-    <t>Get  a combo pack of 8 Skore condoms at Rs.388  with free perfume worth Rs. 100/-. Make your lovemaking extra special with 8 different condoms in a pack. No coupon code required.</t>
-  </si>
-  <si>
-    <t>ClassicRummy</t>
-  </si>
-  <si>
-    <t>Use coupon during deposit of Rs.100 and get Rs.100 instant cashback plus 100% cash bonus.</t>
-  </si>
-  <si>
-    <t>WAY100</t>
-  </si>
-  <si>
-    <t>https://www.classicrummy.com/</t>
-  </si>
-  <si>
-    <t>Buy Kohinoor triple extra condoms pack at Rs. 450. No coupon code required.</t>
-  </si>
-  <si>
-    <t>Buy Kohinoor silk condoms pack at Rs. 300. No coupon code required.</t>
-  </si>
-  <si>
-    <t>Register for free and get an instant bonus of Rs. 25 in your account.</t>
-  </si>
-  <si>
-    <t>Log in and play cash games every day to avail your chance of winning a holiday voucher. One lucky player will be picked randomly who will win a MakeMyTrip Holiday Gift Voucher worth Rs. 5000.</t>
-  </si>
-  <si>
-    <t>ThatsPersonal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get flat 10% off on Fifty Shades of Grey merchandise. </t>
-  </si>
-  <si>
-    <t>2015-06-30 23:59:59</t>
-  </si>
-  <si>
-    <t>SHADES</t>
-  </si>
-  <si>
-    <t>http://www.thatspersonal.com/</t>
+    <t>EDM30</t>
+  </si>
+  <si>
+    <t>https://pizzaonline.dominos.co.in/</t>
+  </si>
+  <si>
+    <t>Play Domino's slot machine game (for free) and be given coupon codes when you win. Valid for online order only.</t>
+  </si>
+  <si>
+    <t>[YOUR OWN COUPON]</t>
+  </si>
+  <si>
+    <t>Get a flat 50% discount on your second pan pizza. This offer is valid only on fresh pan pizzas. The discount would be applied on the pizza having a lower price. Valid only on Medium and Large pizza. Not valid on simply veg and simply n-veg pizzas. Valid for online order only.</t>
+  </si>
+  <si>
+    <t>FP25</t>
+  </si>
+  <si>
+    <t>Get a discount of 20% on a minimum order of Rs. 350. Offer not valid on simply veg, simply n-veg pizzas, combos and beverages. Valid for online order only.</t>
+  </si>
+  <si>
+    <t>NET07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30% discount on minimum bill value of Rs. 400. Not valid on simply veg, simply n-veg pizzas, combos and beverages. Valid for online order only. </t>
+  </si>
+  <si>
+    <t>net13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy 1 pizza Get 1 free when you use the Domino's Android app to order. Not valid on Regular size, Simply Veg Pizzas, Simply non-veg Pizzas and combos. Valid for orders from the mobile app ONLY. </t>
+  </si>
+  <si>
+    <t>DH100</t>
+  </si>
+  <si>
+    <t>MakeMyTrip</t>
+  </si>
+  <si>
+    <t>Rs. 200 off roundtrip  domestic flights. Use normal booking and apply code in "e-coupon" section.</t>
+  </si>
+  <si>
+    <t>200MMT</t>
+  </si>
+  <si>
+    <t>http://www.makemytrip.com/</t>
+  </si>
+  <si>
+    <t>20% discount on a minimum bill value of Rs. 350. Not valid on simply veg, simply n-veg pizzas, combos and beverages. Valid for online order only.</t>
+  </si>
+  <si>
+    <t>GOIB07</t>
+  </si>
+  <si>
+    <t>Travelyaari</t>
+  </si>
+  <si>
+    <t>Rs. 50 discount on bus ticket (one way/round trip) booking.</t>
+  </si>
+  <si>
+    <t>PUNEDISCOUNT</t>
+  </si>
+  <si>
+    <t>http://www.travelyaari.com/</t>
+  </si>
+  <si>
+    <t>Myntra</t>
+  </si>
+  <si>
+    <t>Get flat 50% off on over 1500 products listed on the landing page. No coupon code required. Valid ONLY on products shown on landing page. CLICK TO VIEW valid products under this promo.</t>
+  </si>
+  <si>
+    <t>http://www.myntra.com/</t>
+  </si>
+  <si>
+    <t>Paytm</t>
+  </si>
+  <si>
+    <t>Rs. 25 wallet balance on adding Rs. 25. Offer valid only for new users. Offer valid on all platform.</t>
+  </si>
+  <si>
+    <t>FREE25</t>
+  </si>
+  <si>
+    <t>https://paytm.com/shop</t>
+  </si>
+  <si>
+    <t>Goibibo</t>
+  </si>
+  <si>
+    <t>Get a flat discount of 5% on bus tickets. The maximum discount available per booking is Rs. 60. No minimum booking required. Offer valid till 30th November.</t>
+  </si>
+  <si>
+    <t>2013-11-30 23:59:59</t>
+  </si>
+  <si>
+    <t>busdunia</t>
+  </si>
+  <si>
+    <t>http://www.goibibo.com/</t>
+  </si>
+  <si>
+    <t>Flat Rs. 50 cashback on minimum recharge of Rs. 50. Offer valid only on Paytm mobile app for newly registered users on their first recharge. Cashback will be reflected an hour after successful transaction.</t>
+  </si>
+  <si>
+    <t>new50</t>
+  </si>
+  <si>
+    <t>Tradus</t>
+  </si>
+  <si>
+    <t>Rs. 100 discount on minimum purchase of Rs. 199. Not valid on cash on delivery orders (COD). Offer valid till 22nd October 2012.</t>
+  </si>
+  <si>
+    <t>2012-10-22 23:59:59</t>
+  </si>
+  <si>
+    <t>TRADUS100</t>
+  </si>
+  <si>
+    <t>http://www.tradus.com</t>
+  </si>
+  <si>
+    <t>AbhiBus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get FLAT 10% off on bus tickets (Maximum discount of Rs. 100) with HDFC debit card for bus tickets booking. </t>
+  </si>
+  <si>
+    <t>HDFC100</t>
+  </si>
+  <si>
+    <t>http://www.abhibus.com/</t>
+  </si>
+  <si>
+    <t>25% off on minimum order of Rs. 350 from your mobile app. Point your mobile at "http://apps.dominos.co.in/sm/" to download the app. Valid for online order only.</t>
+  </si>
+  <si>
+    <t>MOBAPP25</t>
+  </si>
+  <si>
+    <t>Rs. 100 off on minimum purchase of Rs. 299. Offer not valid on gift voucher category. Not valid on COD.</t>
+  </si>
+  <si>
+    <t>TRADUS100A</t>
+  </si>
+  <si>
+    <t>Buy 1 pizza and get the 2nd one for free. Second pizza should be the same or lesser value than the first one. Not valid on regular, simply veg, simply non-veg pizza.</t>
+  </si>
+  <si>
+    <t>adv 01</t>
+  </si>
+  <si>
+    <t>Yebhi</t>
+  </si>
+  <si>
+    <t>Rs. 500 off on minimum purchase of Rs. 1,500 for SBI Card Holders. Not applicable on mobiles, electronics, cameras and gold/diamond jewellery.</t>
+  </si>
+  <si>
+    <t>PC246792652M</t>
+  </si>
+  <si>
+    <t>http://www.yebhi.com/index.aspx</t>
+  </si>
+  <si>
+    <t>Free choco lava cake on a minimum bill of Rs. 350. Not valid on simply veg, simply n-veg pizzas, combos and beverages. Valid for online order only.</t>
+  </si>
+  <si>
+    <t>PAYTMSWT</t>
+  </si>
+  <si>
+    <t>appExclusive</t>
+  </si>
+  <si>
+    <t>Exclusive Offer for CouponDunia Users: Get a cashback of Rs. 50 on a minimum recharge or bill payment of Rs. 10! This offer is valid only for new users on the registered number and is valid only on Paytm's mobile app. Offer valid only on mobile recharges. Not valid for old users.</t>
+  </si>
+  <si>
+    <t>2014-11-30 23:59:59</t>
+  </si>
+  <si>
+    <t>Rs. 100 off on minimum order of  Rs. 300. Offer not valid on Mobiles, Cameras, Electronics and Gold or Diamond Jewellery. Offer valid till 1st September 2012.</t>
+  </si>
+  <si>
+    <t>PC24671936N7</t>
+  </si>
+  <si>
+    <t>Get FLAT 10% (upto a maximum of Rs. 2750) off on mobiles, tablets and related accessories. Choose from over 10,000 products. Offer valid till 31st August.</t>
+  </si>
+  <si>
+    <t>2013-08-31 23:59:59</t>
+  </si>
+  <si>
+    <t>CDUNIA10</t>
+  </si>
+  <si>
+    <t>20% off on minimum order of Rs. 350. Not valid on simply veg, simply n-veg pizzas, combos and beverages. Valid for online order only.</t>
+  </si>
+  <si>
+    <t>Rs. 100 discount on minimum order of Rs. 500. Valid for online order only.</t>
+  </si>
+  <si>
+    <t>RINW100</t>
+  </si>
+  <si>
+    <t>Get flat Rs. 101 off on a minimum online order of Rs. 400. Offers are NOT valid on Simply Veg, Simply Non-Veg, Regular Pizzas, Combos, Beverages &amp; Desserts. Valid for online order only. This code is valid till 22nd December.</t>
+  </si>
+  <si>
+    <t>WBZ100</t>
+  </si>
+  <si>
+    <t>Flat 15% discount on minimum bill value of Rs. 350. Valid for online order only.</t>
+  </si>
+  <si>
+    <t>ATRC15</t>
+  </si>
+  <si>
+    <t>CRM08</t>
+  </si>
+  <si>
+    <t>Get your next ticket free (base fare only), subject to a maximum of Rs. 1000 per passenger. Travel date must be at least 7 days after use of the voucher. Use code on "Deal Code" section while booking. While booking a free ticket, passenger would need to write booking ID of main/original ticket (example: FLT0000XXXXXX or NF2XXXXXXXX) in the deal code section on the traveler’s page.</t>
+  </si>
+  <si>
+    <t>FLYFREE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rs. 400 off on domestic flights. Click on instabook and apply coupon code in &amp;quot;e-coupons&amp;quot; section.  </t>
+  </si>
+  <si>
+    <t>INSTA400</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>Get discounts of upto 62% on select mobiles displayed on the landing page. Choose form various brands like Apple, HTC, Lenovo, Lava, LG, Nokia, Micromax, Samsung, and more. No coupon code required.</t>
+  </si>
+  <si>
+    <t>http://www.ebay.in</t>
+  </si>
+  <si>
+    <t>Jabong</t>
+  </si>
+  <si>
+    <t>Flat 50% off sale on special section of mens and womens apparel, shoes, accessories, bags, kids, sports, fragrances, home &amp; living. Click to see products that are 50% off. No coupon code required.</t>
+  </si>
+  <si>
+    <t>http://www.jabong.com</t>
+  </si>
+  <si>
+    <t>MobiKwik</t>
+  </si>
+  <si>
+    <t>Deal-Wali Diwali Exclusive CouponDunia Offer: Cashback of Rs. 150 on a min recharge or bill payment of Rs. 150 on app! Only valid on Mobikwik's mobile app and only for new users. READ VERY CAREFULLY THE INSTRUCTIONS ON HOW TO USE THIS COUPON IN THE EMAIL THAT WE SEND YOU AFTER YOU CLICK. Offer valid once per user. Expires 6pm today, 15th October.</t>
+  </si>
+  <si>
+    <t>2014-10-15 18:00:00</t>
+  </si>
+  <si>
+    <t>http://www.mobikwik.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7% off for HDFC Credit Card customers (using PaisaPay). Maximum discount of Rs. 500. Not valid on promoted items. </t>
+  </si>
+  <si>
+    <t>HDFCFESTV1</t>
+  </si>
+  <si>
+    <t>Ola Cabs</t>
+  </si>
+  <si>
+    <t>Get Rs. 100 off on your first Ola Cab ride booked using the Ola Cab mobile application. Offer valid for new users only.</t>
+  </si>
+  <si>
+    <t>V6EMF3</t>
+  </si>
+  <si>
+    <t>http://www.olacabs.com/</t>
+  </si>
+  <si>
+    <t>SpiceJet</t>
+  </si>
+  <si>
+    <t>Book 40 days in advance on Spicejet and get special fares of as low as Rs. 1900 one way for flight distances of 750km or less. For longer distances pay slightly more. Valid for travel up to 31st Mar (as long as you choose a date at least 40 days from now). Domestic tickets only. See the landing page for complete details.</t>
+  </si>
+  <si>
+    <t>http://www.spicejet.com/</t>
+  </si>
+  <si>
+    <t>Get 10% (upto a MAXIMUM of Rs 100) off on bus tickets.</t>
+  </si>
+  <si>
+    <t>SECRET100</t>
+  </si>
+  <si>
+    <t>Invite friends and earn up to Rs. 1,000. This is a sign up DEAL.</t>
+  </si>
+  <si>
+    <t>Rs. 50 cashback on minimum recharge of Rs. 50 from MobiKwik mobile app. Offer will be valid only for new users on transactions done through Debit Card or Credit Card. Not valid on Net Banking and Virtual Cards. Can be used only once per user. Android user: Click "I have a Promo Code" while entering the card details. Windows and iOS user: Go to "My Account" after adding money to your wallet and then go to "Redeem Promo code". Enter code to get cashback.</t>
+  </si>
+  <si>
+    <t>WELCOME50</t>
+  </si>
+  <si>
+    <t>Yepme</t>
+  </si>
+  <si>
+    <t>All types of men's footwear at Rs. 499. This is a deal. No coupon code required. Click to choose your favorite shoes.</t>
+  </si>
+  <si>
+    <t>http://yepme.com</t>
+  </si>
+  <si>
+    <t>Rs. 100 discount on round trip bus booking.</t>
+  </si>
+  <si>
+    <t>Rs. 200 off on minimum purchase of Rs. 500. Valid only on Footwear, Watches, Clothing &amp; Accessories.</t>
+  </si>
+  <si>
+    <t>DUNIA200</t>
+  </si>
+  <si>
+    <t>7% off for SBI Debit Card customers. Maximum discount of Rs. 1,000. Not valid on discounted items.</t>
+  </si>
+  <si>
+    <t>CRACKERDC1</t>
+  </si>
+  <si>
+    <t>Inkfruit</t>
+  </si>
+  <si>
+    <t>20% discount on any purchase. No minimum purchase required.</t>
+  </si>
+  <si>
+    <t>INKFB20</t>
+  </si>
+  <si>
+    <t>http://www.inkfruit.com</t>
+  </si>
+  <si>
+    <t>Get 10% discount on minimum purchase value of Rs. 500 and above. Not valid on electronics.</t>
+  </si>
+  <si>
+    <t>RECHARGE10</t>
+  </si>
+  <si>
+    <t>Free garlic bread on minimum purchase of Rs. 400. Offer valid on all pizzas.</t>
+  </si>
+  <si>
+    <t>PAYTMGB</t>
+  </si>
+  <si>
+    <t>Indiaplaza</t>
+  </si>
+  <si>
+    <t>5% additional discount on all purchases as cash back. Maximum discount up to Rs. 1,500. Valid only for Maestro or MasterCard cardholders. Offer ends on 31st March 2013.</t>
+  </si>
+  <si>
+    <t>MASTCASH</t>
+  </si>
+  <si>
+    <t>http://www.indiaplaza.com</t>
+  </si>
+  <si>
+    <t>Rs. 150 cashback on minimum recharge of Rs. 150 using the Mobikwik Android/IOS/Windows App. Only for NEW users. Only for Visa or Mastercard Debit/Credit Card. No net banking. Valid till 27th November 2014. To use FIRST make a new account. SECOND add Rs. 150 to your wallet. THIRD click "My Account" and enter coupon code. FOURTH proceed with your recharge. Will not work if you have EVER recharged with Mobikwik before.</t>
+  </si>
+  <si>
+    <t>2014-11-27 23:59:59</t>
+  </si>
+  <si>
+    <t>HomeShop18</t>
+  </si>
+  <si>
+    <t>Rs. 200 off on minimum purchase of Rs. 1,000. Not applicable on Mobile Phones, Mobile Accessories and Storage Devices. Not valid on COD or EMI payments. Offer valid till 31st December 2012. Apply coupon in "Gift Coupon Number" box.</t>
+  </si>
+  <si>
+    <t>2012-12-31 23:59:59</t>
+  </si>
+  <si>
+    <t>GC985Y2E53N8</t>
+  </si>
+  <si>
+    <t>http://www.homeshop18.com/</t>
+  </si>
+  <si>
+    <t>Rs. 350 off on round trip flight. Use normal booking and apply code in "e-coupon" section.</t>
+  </si>
+  <si>
+    <t>350mmt</t>
+  </si>
+  <si>
+    <t>15% discount on a minimum bill value of Rs. 350. Not valid on simply veg, simply n-veg pizzas, combos and beverages. Valid for online order only.</t>
+  </si>
+  <si>
+    <t>NET03</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Get Rs. 350 off on your first Uber ride. Offer valid for new users only. Users need to download Uber's mobile app to use the service. Valid only in Bangalore, Ahmedabad, Chandigarh, Mumbai, Hyderabad, Delhi, Pune, Jaipur, Kolkata and Chennai.</t>
+  </si>
+  <si>
+    <t>COUPONDUNIA350</t>
+  </si>
+  <si>
+    <t>https://www.uber.com/</t>
   </si>
   <si>
     <t>ShopClues</t>
   </si>
   <si>
-    <t>Valentine Special: Upto 80% off on intimate products. No coupon code required.</t>
-  </si>
-  <si>
-    <t>2015-02-17 23:59:00</t>
+    <t>Get 15% off (Upto a MAXIMUM  of Rs. 300) on a minimum purchase of Rs. 300. Offer NOT valid for Mobiles &amp; Tablets, Computers and Electronics. Offer valid till 7th October.</t>
+  </si>
+  <si>
+    <t>2013-10-07 23:59:59</t>
+  </si>
+  <si>
+    <t>SCNW15CD</t>
   </si>
   <si>
     <t>http://www.shopclues.com</t>
   </si>
   <si>
-    <t>Valentine's Day Special: Upto 50% off on adult products sitewide.</t>
-  </si>
-  <si>
-    <t>2015-02-14 23:59:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now extend your honeymoon madness with the KamaSutra honeymoon pack. Buy it for Rs. 400 (originally priced at Rs. 499). No coupon code required. </t>
-  </si>
-  <si>
-    <t>Pleasurekart offers a flat 50% discount on generic Sidenafil Citrate (Viagra) tablets. No coupon code required.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We live in a modern society, and it's regressive to talk about sex and sexual wellness in hush-hush tones. Go on, celebrate your sexuality unabashedly with these products, some of which will bring your mojo back on track! </t>
-  </si>
-  <si>
-    <t>HKSW</t>
-  </si>
-  <si>
-    <t>merchantApp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get flat 10% off on all products by Dona. </t>
-  </si>
-  <si>
-    <t>LOVEDONA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get flat 10% off on all products by Wevibe. </t>
-  </si>
-  <si>
-    <t>WEVIBE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use the given coupon code, 'MEETPC' while registration and participate in the Mary Kom tournament. 5 winners get a chance and meet the pretty Priyanka Chopra. </t>
-  </si>
-  <si>
-    <t>MEETPC</t>
-  </si>
-  <si>
-    <t>Get 100% Joining Bonus (Bonus Upto Rs. 2000) + 2 Tourney Tickets worth Rs. 2200. Hurry! Limited period offer</t>
-  </si>
-  <si>
-    <t>2015-01-02 23:59:00</t>
-  </si>
-  <si>
-    <t>CDNEW2015</t>
-  </si>
-  <si>
-    <t>Flat 15% off on purchase below Rs. 10,000 sitewide.</t>
-  </si>
-  <si>
-    <t>SUMMERFUN</t>
-  </si>
-  <si>
-    <t>Flat 10% off on purchase of  Rs. 10,000 and above sitewide.</t>
-  </si>
-  <si>
-    <t>SUMMERPLAY</t>
-  </si>
-  <si>
-    <t>Flat 12% off on toys for men.</t>
-  </si>
-  <si>
-    <t>MENWILLBEMEN</t>
-  </si>
-  <si>
-    <t>Rs. 500 for new users on their first purchase of Rs. 3000 and above.</t>
-  </si>
-  <si>
-    <t>500ROSES</t>
-  </si>
-  <si>
-    <t>Flat 12% off on 50 Shades of Grey collection.</t>
-  </si>
-  <si>
-    <t>50SHADES12OFF</t>
-  </si>
-  <si>
-    <t>Lingerie starting at Rs. 699. Offer valid only on products mentioned on the landing page. No coupon code required.</t>
-  </si>
-  <si>
-    <t>Lingerie starting at Rs. 499. Offer valid only on products mentioned on the landing page. No coupon code required.</t>
-  </si>
-  <si>
-    <t>Independence weekend special offer by Orderpleasure. Get a discount of flat 25% on purchases made sitewide.nOffer expires on 15th August, so rush!</t>
-  </si>
-  <si>
-    <t>2014-08-15 23:59:00</t>
-  </si>
-  <si>
-    <t>august15</t>
+    <t>Rs. 101 discount on minimum order of Rs. 400. Does not include VAT. Valid for online order only.</t>
+  </si>
+  <si>
+    <t>MOB02</t>
+  </si>
+  <si>
+    <t>Flipkart</t>
+  </si>
+  <si>
+    <t>Upto 50% off on Men's Footwear. NO Coupon is required. Click on the landing page to view the products covered under this offer.</t>
+  </si>
+  <si>
+    <t>http://dl.flipkart.com/dl/</t>
+  </si>
+  <si>
+    <t>Rs. 20 cashback on recharges of Rs. 100 and above. This code can be used 1 time per user/number. Cashback will be processed within 2 hours of the order. Applicable for all users of Paytm. Valid on web &amp; app.</t>
+  </si>
+  <si>
+    <t>2015-03-29 23:59:00</t>
+  </si>
+  <si>
+    <t>WC20</t>
+  </si>
+  <si>
+    <t>redBus</t>
+  </si>
+  <si>
+    <t>10% discount on bus ticket booking for ICICI  Net Banking. Offer valid till 31st July 2012.</t>
+  </si>
+  <si>
+    <t>ICICINET2012</t>
+  </si>
+  <si>
+    <t>http://www.redbus.in/</t>
+  </si>
+  <si>
+    <t>10% discount on one way or round trip bus ticket booking. Valid for ICICI customers only (Net Banking, Debit/Credit Card).</t>
+  </si>
+  <si>
+    <t>TRAVELYAARIGB</t>
+  </si>
+  <si>
+    <t>25% off on minimum order of Rs. 350. Offer ends on 31st July 2012. Valid for online order only.</t>
+  </si>
+  <si>
+    <t>EDM25</t>
+  </si>
+  <si>
+    <t>Indiatimes Shopping</t>
+  </si>
+  <si>
+    <t>Get upto 12% EXTRA off on select mobiles. This offer is NOT VALID on tablets (USE HOTTABS for availing disocunts on tablets).</t>
+  </si>
+  <si>
+    <t>MOBDEALS</t>
+  </si>
+  <si>
+    <t>http://shopping.indiatimes.com/</t>
   </si>
 </sst>
 </file>
@@ -611,7 +866,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,8 +874,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -656,8 +911,11 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -665,7 +923,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -677,7 +935,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -685,19 +943,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -705,19 +963,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -725,16 +983,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -742,16 +1003,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -759,16 +1023,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -776,16 +1043,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -793,16 +1063,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -810,19 +1083,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
         <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -830,16 +1100,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -847,19 +1120,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -867,16 +1140,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -884,16 +1160,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -901,16 +1180,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,16 +1200,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,13 +1223,13 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
         <v>50</v>
@@ -955,16 +1240,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -972,16 +1260,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -989,33 +1280,36 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1023,36 +1317,36 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
         <v>50</v>
@@ -1063,19 +1357,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1083,19 +1377,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1103,19 +1397,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1123,19 +1417,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1143,19 +1437,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1163,19 +1457,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1183,19 +1477,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1203,19 +1497,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
-      <c r="E32" t="s">
-        <v>80</v>
-      </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1223,16 +1514,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1240,16 +1531,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1257,19 +1548,524 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" t="s">
+        <v>158</v>
+      </c>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>164</v>
+      </c>
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>169</v>
+      </c>
+      <c r="F61" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
